--- a/Question1/V3/Event.xlsx
+++ b/Question1/V3/Event.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_633AF923EE15CA0CCA669886DFED3F90A599559F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F2594DA-13D9-413F-9A17-F8C1F6BF5377}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="No perturbation" sheetId="4" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="tripping G6" sheetId="9" r:id="rId6"/>
     <sheet name="tripping B310-B311+B306-B313" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7644" uniqueCount="14">
   <si>
     <t>TYPE</t>
   </si>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="582">
     <border>
       <left/>
       <right/>
@@ -145,19 +145,1167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="582">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="581" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,102 +1626,102 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="true"/>
+    <col min="2" max="2" width="5.453125" customWidth="true"/>
+    <col min="3" max="3" width="4.1796875" customWidth="true"/>
+    <col min="4" max="4" width="13.453125" customWidth="true"/>
+    <col min="5" max="5" width="6.54296875" customWidth="true"/>
+    <col min="6" max="6" width="6.26953125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="568" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="568" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="568" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="568" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="568" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="568" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="568" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="568" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="568" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>8.411677387431965E-2</v>
+        <v>0.08411677387431965</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F2" s="568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="568" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="568" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="568" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8.411677387431965E-2</v>
+        <v>0.08411677387431965</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F3" s="568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="568" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="568" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="568" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4.00791687283523E-2</v>
+        <v>0.0400791687283523</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F4" s="568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="568" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="568" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="568" t="s">
         <v>8</v>
       </c>
       <c r="D5">
@@ -582,18 +1730,18 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="F5" s="568" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="568" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="568" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="568" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -602,7 +1750,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="568" t="s">
         <v>13</v>
       </c>
     </row>
@@ -621,102 +1769,102 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="true"/>
+    <col min="2" max="2" width="5.453125" customWidth="true"/>
+    <col min="3" max="3" width="4.1796875" customWidth="true"/>
+    <col min="4" max="4" width="13.453125" customWidth="true"/>
+    <col min="5" max="5" width="6.54296875" customWidth="true"/>
+    <col min="6" max="6" width="6.26953125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="570" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="570" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="570" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="570" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="570" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2">
+      <c r="A2" s="570" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="570" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="570" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>8.411677387431965E-2</v>
+        <v>0.08411677387431965</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="F2" s="570" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="570" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="570" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="570" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8.411677387431965E-2</v>
+        <v>0.08411677387431965</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F3" s="570" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="570" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="570" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="570" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4.00791687283523E-2</v>
+        <v>0.0400791687283523</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F4" s="570" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="570" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="570" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="570" t="s">
         <v>8</v>
       </c>
       <c r="D5">
@@ -725,18 +1873,18 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F5" s="570" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="570" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="570" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="570" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -745,7 +1893,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="570" t="s">
         <v>13</v>
       </c>
     </row>
@@ -762,102 +1910,102 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="true"/>
+    <col min="2" max="2" width="5.453125" customWidth="true"/>
+    <col min="3" max="3" width="4.1796875" customWidth="true"/>
+    <col min="4" max="4" width="13.453125" customWidth="true"/>
+    <col min="5" max="5" width="6.54296875" customWidth="true"/>
+    <col min="6" max="6" width="6.26953125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="572" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="572" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="572" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="572" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="572" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="572" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2">
+      <c r="A2" s="572" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="572" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="572" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>8.411677387431965E-2</v>
+        <v>0.08411677387431965</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F2" s="572" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="572" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="572" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="572" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8.411677387431965E-2</v>
+        <v>0.08411677387431965</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="F3" s="572" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="572" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="572" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="572" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4.00791687283523E-2</v>
+        <v>0.0400791687283523</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="F4" s="572" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="572" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="572" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="572" t="s">
         <v>8</v>
       </c>
       <c r="D5">
@@ -866,18 +2014,18 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="F5" s="572" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="572" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="572" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="572" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -886,7 +2034,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="572" t="s">
         <v>13</v>
       </c>
     </row>
@@ -903,131 +2051,131 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="true"/>
+    <col min="2" max="2" width="5.453125" customWidth="true"/>
+    <col min="3" max="3" width="4.1796875" customWidth="true"/>
+    <col min="4" max="4" width="13.453125" customWidth="true"/>
+    <col min="5" max="5" width="6.54296875" customWidth="true"/>
+    <col min="6" max="6" width="6.26953125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="574" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="574" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="574" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="574" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2">
+      <c r="A2" s="574" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="574" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="574" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>8.6293799254681128E-2</v>
+        <v>0.086336905932519151</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="574" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="574" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="574" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="574" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8.6293799254681128E-2</v>
+        <v>0.086336905932519151</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F3" s="574" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="574" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="574" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="574" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1.5235467328932875E-2</v>
+        <v>0.014743544064193386</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="F4" s="574" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="574" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="574" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="574" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.40608846708085244</v>
+        <v>0.40629132203538415</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F5" s="574" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="574" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="574" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="574" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>0.40608846708085244</v>
+        <v>0.40629132203538415</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="574" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1044,82 +2192,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="true"/>
+    <col min="2" max="2" width="5.453125" customWidth="true"/>
+    <col min="3" max="3" width="4.1796875" customWidth="true"/>
+    <col min="4" max="4" width="13.453125" customWidth="true"/>
+    <col min="5" max="5" width="6.54296875" customWidth="true"/>
+    <col min="6" max="6" width="6.26953125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="576" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="576" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="576" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="576" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="576" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2">
+      <c r="A2" s="576" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="576" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="576" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>8.7628865979381437E-2</v>
+        <v>0.087628865979381437</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="F2" s="576" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="576" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="576" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="576" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8.7628865979381437E-2</v>
+        <v>0.087628865979381437</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="F3" s="576" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="576" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="576" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="576" t="s">
         <v>7</v>
       </c>
       <c r="D4">
@@ -1128,18 +2276,18 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="F4" s="576" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="576" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="576" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="576" t="s">
         <v>8</v>
       </c>
       <c r="D5">
@@ -1148,18 +2296,18 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="F5" s="576" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="576" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="576" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="576" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -1168,7 +2316,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="576" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1187,131 +2335,131 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="true"/>
+    <col min="2" max="2" width="5.453125" customWidth="true"/>
+    <col min="3" max="3" width="4.1796875" customWidth="true"/>
+    <col min="4" max="4" width="14.453125" customWidth="true"/>
+    <col min="5" max="5" width="6.54296875" customWidth="true"/>
+    <col min="6" max="6" width="6.26953125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1">
+      <c r="A1" s="578" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="578" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="578" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="578" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="578" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2">
+      <c r="A2" s="578" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="578" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>8.700304908702329E-2</v>
+        <v>0.087011226840376904</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F2" s="578" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="578" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="578" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>8.700304908702329E-2</v>
+        <v>0.087011226840376904</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="F3" s="578" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="578" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="578" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7.1416751245576577E-3</v>
+        <v>0.0070483525274634487</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="F4" s="578" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="578" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="578" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.40942611335069784</v>
+        <v>0.40946459689589138</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="F5" s="578" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="578" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="578" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>0.40942611335069784</v>
+        <v>0.40946459689589138</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="578" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1324,106 +2472,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="true"/>
+    <col min="2" max="2" width="5.453125" customWidth="true"/>
+    <col min="3" max="3" width="4.1796875" customWidth="true"/>
+    <col min="4" max="4" width="13.453125" customWidth="true"/>
+    <col min="5" max="5" width="6.54296875" customWidth="true"/>
+    <col min="6" max="6" width="6.26953125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row r="1">
+      <c r="A1" s="580" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="580" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="580" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="580" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="580" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2">
+      <c r="A2" s="580" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="580" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="580" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.30991372753202334</v>
+        <v>0.31688286444168146</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="F2" s="580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="580" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="580" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="580" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0.67212558712299963</v>
+        <v>0.66490846553000771</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="F3" s="580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="580" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="580" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="580" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1.7960685344976947E-2</v>
+        <v>0.018208670028310812</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="F4" s="580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="580" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="580" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="580" t="s">
         <v>8</v>
       </c>
       <c r="D5">
@@ -1432,18 +2580,18 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="F5" s="580" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="580" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="580" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="580" t="s">
         <v>9</v>
       </c>
       <c r="D6">
@@ -1452,7 +2600,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="580" t="s">
         <v>13</v>
       </c>
     </row>
